--- a/output/zaluski/2020/sheets/year_2020.xlsx
+++ b/output/zaluski/2020/sheets/year_2020.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,159 +481,102 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>68.36774193548388</v>
+        <v>68.4739218399264</v>
       </c>
       <c r="C2" t="n">
-        <v>60.19354838709677</v>
+        <v>60.42995623050439</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>65.7551724137931</v>
+        <v>66.81189399774914</v>
       </c>
       <c r="C3" t="n">
-        <v>55.72413793103449</v>
+        <v>60.45216077878109</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33.49032258064516</v>
+        <v>67.17898091577048</v>
       </c>
       <c r="C4" t="n">
-        <v>27.31612903225806</v>
+        <v>61.03419247942136</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1.233333333333333</v>
+        <v>64.64360761756819</v>
       </c>
       <c r="C5" t="n">
-        <v>1.2</v>
+        <v>56.36856476717497</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>5.164516129032259</v>
+        <v>66.05517844829293</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>58.9440207866211</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>9.106666666666667</v>
+        <v>65.70926415178261</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>57.99581624585184</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>64.13225806451612</v>
+        <v>64.93331670824374</v>
       </c>
       <c r="C8" t="n">
-        <v>53.00967741935483</v>
+        <v>58.33907215224639</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>65.99677419354836</v>
+        <v>62.93715229560085</v>
       </c>
       <c r="C9" t="n">
-        <v>57.50967741935484</v>
+        <v>57.32682576864289</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>65.64333333333333</v>
+        <v>64.59585866781994</v>
       </c>
       <c r="C10" t="n">
-        <v>57.16</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>64.71935483870968</v>
-      </c>
-      <c r="C11" t="n">
-        <v>55.78387096774193</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>62.31666666666666</v>
-      </c>
-      <c r="C12" t="n">
-        <v>50.21</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>64.33548387096774</v>
-      </c>
-      <c r="C13" t="n">
-        <v>55.65483870967742</v>
+        <v>58.71220460641804</v>
       </c>
     </row>
   </sheetData>
